--- a/2017/Log.xlsx
+++ b/2017/Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>company</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>TODO: if Navico didn't proceed, call RWA for other positions</t>
+  </si>
+  <si>
+    <t>payment express</t>
+  </si>
+  <si>
+    <t>Embedded C/C++ developer</t>
+  </si>
+  <si>
+    <t>no leadership, city</t>
   </si>
 </sst>
 </file>
@@ -400,7 +409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +478,21 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42804</v>
+      </c>
+      <c r="D5" s="3">
+        <v>42827</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="J5" s="3"/>
